--- a/new_verst_11_11/sort.xlsx
+++ b/new_verst_11_11/sort.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\pycharm projects\selenium\new_verst_11_11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\TIC\sch-20200301T104329Z-001\New K WB\selenium\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="17">
   <si>
     <t>צוות נוטשים</t>
   </si>
@@ -44,12 +44,51 @@
       <t xml:space="preserve"> WB</t>
     </r>
   </si>
+  <si>
+    <t>מובייל</t>
+  </si>
+  <si>
+    <t>צוות מאור</t>
+  </si>
+  <si>
+    <t>צוות תומר</t>
+  </si>
+  <si>
+    <t>WB חדש</t>
+  </si>
+  <si>
+    <t>צוות WB</t>
+  </si>
+  <si>
+    <t>צוות עומר</t>
+  </si>
+  <si>
+    <t xml:space="preserve">צוות יאיר </t>
+  </si>
+  <si>
+    <t>צוות רפאל</t>
+  </si>
+  <si>
+    <t>מכשירים / נקסט</t>
+  </si>
+  <si>
+    <t>צוות רמינה</t>
+  </si>
+  <si>
+    <t>מובייל מכר</t>
+  </si>
+  <si>
+    <t>בק אופיס / לידרים</t>
+  </si>
+  <si>
+    <t>צוות הודיה</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -89,6 +128,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -122,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -148,9 +193,15 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -166,9 +217,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -206,7 +257,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -278,7 +329,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -459,7 +510,7 @@
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2:D2"/>
+      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -498,54 +549,148 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="6"/>
-      <c r="C2" s="5">
-        <v>2</v>
-      </c>
-      <c r="D2" s="5">
-        <v>1</v>
+      <c r="A2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="2"/>
+      <c r="A3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D3" s="11"/>
+      <c r="E3" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="6"/>
+      <c r="A4" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D4" s="11"/>
+      <c r="E4" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="D5" s="11"/>
+      <c r="E5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="11"/>
+      <c r="E6" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D7" s="11"/>
+      <c r="E7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="2"/>
+      <c r="A8" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="2"/>
+      <c r="A9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>4</v>
+      </c>
       <c r="D10" s="11"/>
+      <c r="E10" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2"/>
       <c r="B11" s="7"/>
       <c r="D11" s="11"/>
+      <c r="E11" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2"/>
